--- a/年代專項/西漢/西汉开国功臣列表.xlsx
+++ b/年代專項/西漢/西汉开国功臣列表.xlsx
@@ -3666,10 +3666,10 @@
   <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:S144"/>
+      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6119,6 +6119,9 @@
       <c r="G46" t="s">
         <v>361</v>
       </c>
+      <c r="H46">
+        <v>2605</v>
+      </c>
       <c r="I46">
         <v>-201</v>
       </c>
@@ -9236,6 +9239,9 @@
       </c>
       <c r="G105" t="s">
         <v>784</v>
+      </c>
+      <c r="H105">
+        <v>2609</v>
       </c>
       <c r="I105">
         <v>-196</v>
